--- a/AAII_Financials/Yearly/VAR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VAR_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/VAR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VAR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>VAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E7" s="2">
         <v>43735</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43371</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43007</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42279</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41908</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41544</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41180</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40816</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3168200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3225100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2919100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2619300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2593700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2490700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3049800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2942900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2807000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2596700</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1791000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1854800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1645500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1505400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1489000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1458600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1748100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3386400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1610700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1460800</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1377200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1370300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1273600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1113900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1104700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1032100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1301700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-443500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1196300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1135900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,41 +840,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>280600</v>
+      </c>
+      <c r="E12" s="3">
         <v>247600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>233900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>210000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>195400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>234800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>416400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>185700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>170700</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,50 +909,56 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E14" s="3">
         <v>117300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>58800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>64800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>22600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>25100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
         <v>7800</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
@@ -952,15 +975,18 @@
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +997,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2845000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2838900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2481700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2319100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2166900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2095000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2478600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2334000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2212900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2008200</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>323200</v>
+      </c>
+      <c r="E18" s="3">
         <v>386200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>437400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>426800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>395700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>571200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>608900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>594100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>588500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,173 +1085,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E20" s="3">
         <v>43400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>21500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>17200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>13500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>471200</v>
+      </c>
+      <c r="E21" s="3">
         <v>522600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>531600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>390700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>523800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>477700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>644100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>679100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>660300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>643900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E22" s="3">
         <v>8800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2600</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>358300</v>
+      </c>
+      <c r="E23" s="3">
         <v>420800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>452100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>303100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>432400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>401300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>574500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>612100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>595900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>588700</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E24" s="3">
         <v>122400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>94000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>77100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>110100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>89900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>170800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>173800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>168900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>180100</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1298,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>274800</v>
+      </c>
+      <c r="E26" s="3">
         <v>298400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>358100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>226000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>322300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>311400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>403700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>438200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>427000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>408600</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>274600</v>
+      </c>
+      <c r="E27" s="3">
         <v>298100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>357700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>225300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>321900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>310900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>403700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>438200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>427000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>408600</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,42 +1406,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E29" s="3">
         <v>-6200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-207800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-6800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>77400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>100600</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-9700</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1478,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1514,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-43400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-21500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-13600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-17200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-13500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>269200</v>
+      </c>
+      <c r="E33" s="3">
         <v>291900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>149900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>218500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>399300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>411500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>403700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>438200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>427000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>398900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1622,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>269200</v>
+      </c>
+      <c r="E35" s="3">
         <v>291900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>149900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>218500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>399300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>411500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>403700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>438200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>427000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>398900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E38" s="2">
         <v>43735</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43371</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43007</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42279</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41908</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41544</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41180</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40816</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1718,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,305 +1734,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>766100</v>
+      </c>
+      <c r="E41" s="3">
         <v>531400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>504800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>716200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>811400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>845500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>849300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1117900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>704600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>564500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>39400</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>95300</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>66200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>62700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>49700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19200</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1165300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1204600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1082100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1050100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>840100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>770900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>731900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>698300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>691800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>635200</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>516300</v>
+      </c>
+      <c r="E44" s="3">
         <v>551500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>438100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>417700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>442400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>612600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>572300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>535200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>457900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>410000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>155600</v>
+      </c>
+      <c r="E45" s="3">
         <v>107900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>124000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>112800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>571900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>460000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>274500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>290700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>266600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>225800</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2603300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2395400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2188400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2296800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2615400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2393000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2494200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2704800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2170500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1854600</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>268500</v>
+      </c>
+      <c r="E47" s="3">
         <v>264200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>178200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>303300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>246300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>141700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>123200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>49700</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>465900</v>
+      </c>
+      <c r="E48" s="3">
         <v>311500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>274600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>510600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>258600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>758400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>338000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>315300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>296600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>285900</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>895200</v>
+      </c>
+      <c r="E49" s="3">
         <v>912900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>394700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>294200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>328300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>566900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>279500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>248700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>249000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>224800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2091,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2127,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>229300</v>
+      </c>
+      <c r="E52" s="3">
         <v>217700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>216800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>385800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>740300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>461000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>122400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>149900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>162600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>133500</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2199,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4462200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4101700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3252700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3294400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3814800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3578700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3357300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3468500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2878700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2498800</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2254,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,145 +2270,158 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>194900</v>
+      </c>
+      <c r="E57" s="3">
         <v>248500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>190300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>162300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>159200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>202900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>187400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>194300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>180700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>154900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>358400</v>
+      </c>
+      <c r="E58" s="3">
         <v>410000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>350000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>379000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>158400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>50000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>56300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>155000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>191300</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1301200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1225500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1149400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1507700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1075200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1368700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>964300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>910100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>779700</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1854500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1884000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1339700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1645100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1613400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1376600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1201700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1160600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1236500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1125900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2287,59 +2430,65 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>286900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>337500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>387500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>450000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>6300</v>
       </c>
       <c r="L61" s="3">
         <v>6300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>6300</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>514200</v>
+      </c>
+      <c r="E62" s="3">
         <v>440100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>324300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>127400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>155800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>138200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>151700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>144000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>126200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>122700</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2519,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2555,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2591,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2386700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2333400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1668300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1776800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2074300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1867000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1740900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1754600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1369000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1254900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2646,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2679,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2715,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2751,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2787,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1133000</v>
+      </c>
+      <c r="E72" s="3">
         <v>934000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>780400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>778600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1069000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2122100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>931200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1010300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>893100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>677500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2859,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2895,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2931,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2075500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1768300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1584400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1517600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1740500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1711600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1616400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1713800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1509800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1243900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3003,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E80" s="2">
         <v>43735</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43371</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43007</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42279</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41908</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41544</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41180</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40816</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>269200</v>
+      </c>
+      <c r="E81" s="3">
         <v>291900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>149900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>218500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>399300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>411500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>403700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>438200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>427000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>398900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3099,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E83" s="3">
         <v>93000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>72700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>76900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>79800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>68500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>62500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>62900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>61000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>52600</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3168,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3204,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3240,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3276,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3312,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>484100</v>
+      </c>
+      <c r="E89" s="3">
         <v>371800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>454900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>399100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>356300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>469600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>449000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>455200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>492800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>472800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3367,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-84300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-58000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-47700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-59100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-80400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-91400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-89600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-76300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-61100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-70900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3436,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3472,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-140300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-631700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-174700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-130100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-109200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-210900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-133100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-96300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-122300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-117900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,8 +3527,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3326,9 +3560,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3596,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3632,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3668,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-93100</v>
+      </c>
+      <c r="E100" s="3">
         <v>279200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-487000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-392400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-245800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-276700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-595500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>51600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-234700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-311300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E101" s="3">
         <v>8400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>14200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>11000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>241700</v>
+      </c>
+      <c r="E102" s="3">
         <v>27700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-202100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-127300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-268600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>413300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>140100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>44200</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
